--- a/benchmark_stats.xlsx
+++ b/benchmark_stats.xlsx
@@ -408,70 +408,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ti"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ti"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ti"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -590,17 +526,28 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ti"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -617,6 +564,59 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ti"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ti"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -861,11 +861,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-598632864"/>
-        <c:axId val="-598632320"/>
+        <c:axId val="1975485600"/>
+        <c:axId val="1975490496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-598632864"/>
+        <c:axId val="1975485600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,12 +921,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-598632320"/>
+        <c:crossAx val="1975490496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-598632320"/>
+        <c:axId val="1975490496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +983,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-598632864"/>
+        <c:crossAx val="1975485600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1656,14 +1656,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E16"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="image sample(s)" dataDxfId="0" dataCellStyle="Note"/>
-    <tableColumn id="2" name="IoU threshold" dataDxfId="6"/>
-    <tableColumn id="3" name="Process Name" dataDxfId="5"/>
-    <tableColumn id="4" name="mAP" dataDxfId="4"/>
-    <tableColumn id="5" name="Avg. frame processing time" dataDxfId="3"/>
+    <tableColumn id="1" name="image sample(s)" dataDxfId="4" dataCellStyle="Note"/>
+    <tableColumn id="2" name="IoU threshold" dataDxfId="3"/>
+    <tableColumn id="3" name="Process Name" dataDxfId="2"/>
+    <tableColumn id="4" name="mAP" dataDxfId="1"/>
+    <tableColumn id="5" name="Avg. frame processing time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1959,13 +1959,14 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="18.19921875" customWidth="1"/>
     <col min="2" max="3" width="13.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2081,8 +2082,12 @@
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="D7" s="10">
+        <v>5.9259259259259199E-2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3.6961416403452498E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="12">
@@ -2094,8 +2099,12 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="1">
+        <v>0.50490740740740703</v>
+      </c>
+      <c r="E8" s="13">
+        <v>4.1585841443803499E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="12">
@@ -2107,8 +2116,12 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="1">
+        <v>0.47638888888888797</v>
+      </c>
+      <c r="E9" s="13">
+        <v>1.22331076198154</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="12">
@@ -2120,8 +2133,12 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="13"/>
+      <c r="D10" s="1">
+        <v>3.79629629629629E-2</v>
+      </c>
+      <c r="E10" s="13">
+        <v>9.5702332920498304E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="18" thickBot="1">
       <c r="A11" s="14">
@@ -2133,8 +2150,12 @@
       <c r="C11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="D11" s="16">
+        <v>6.4814814814814797E-2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>13.6222740888595</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8">
@@ -2146,8 +2167,12 @@
       <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="D12" s="10">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3.6544668674468997E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="12">
@@ -2159,8 +2184,12 @@
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="13"/>
+      <c r="D13" s="1">
+        <v>5.5555555555555497E-3</v>
+      </c>
+      <c r="E13" s="13">
+        <v>4.1201056374443899E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="12">
@@ -2172,8 +2201,12 @@
       <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="13"/>
+      <c r="D14" s="1">
+        <v>5.5555555555555497E-3</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1.21208487749099</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="12">
@@ -2185,8 +2218,12 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="13"/>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>9.6208782990773498E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="18" thickBot="1">
       <c r="A16" s="14">
@@ -2198,8 +2235,12 @@
       <c r="C16" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>13.6158024642202</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/benchmark_stats.xlsx
+++ b/benchmark_stats.xlsx
@@ -681,7 +681,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -698,8 +698,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -721,9 +723,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>opencv_haar</c:v>
                 </c:pt>
@@ -737,6 +739,36 @@
                   <c:v>dlib_hog</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>dlib_cnn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>opencv_haar</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mobilenet_ssd</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dlib_hog</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>dlib_cnn</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>opencv_haar</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mobilenet_ssd</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>dlib_hog</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>dlib_cnn</c:v>
                 </c:pt>
               </c:strCache>
@@ -744,10 +776,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0.37564814814814801</c:v>
                 </c:pt>
@@ -762,11 +794,41 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.64453703703703602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9259259259259199E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50490740740740703</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.47638888888888797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.79629629629629E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4814814814814797E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5555555555555497E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5555555555555497E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -783,8 +845,10 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -806,9 +870,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>opencv_haar</c:v>
                 </c:pt>
@@ -822,6 +886,36 @@
                   <c:v>dlib_hog</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>dlib_cnn</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>opencv_haar</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mobilenet_ssd</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>dlib_hog</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>dlib_cnn</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>opencv_haar</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>mobilenet_ssd</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>mtcnn</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>dlib_hog</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>dlib_cnn</c:v>
                 </c:pt>
               </c:strCache>
@@ -829,10 +923,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>Sheet1!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>3.8628988795810199E-2</c:v>
                 </c:pt>
@@ -847,11 +941,41 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>13.6313166750801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6961416403452498E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1585841443803499E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.22331076198154</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.5702332920498304E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.6222740888595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6544668674468997E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1201056374443899E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.21208487749099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6208782990773498E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13.6158024642202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -861,11 +985,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1975485600"/>
-        <c:axId val="1975490496"/>
+        <c:axId val="-1205425440"/>
+        <c:axId val="-1205425984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1975485600"/>
+        <c:axId val="-1205425440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,12 +1045,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1975490496"/>
+        <c:crossAx val="-1205425984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1975490496"/>
+        <c:axId val="-1205425984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +1107,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1975485600"/>
+        <c:crossAx val="-1205425440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1624,20 +1748,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1959,7 +2083,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/benchmark_stats.xlsx
+++ b/benchmark_stats.xlsx
@@ -14,17 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>mAP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avg. frame processing time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>image sample(s)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -55,12 +47,55 @@
     <t>opencv_haar</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Avg. frame processing time (sec)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>next week:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. add the last 5000 samples.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. finish YOLO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Make the program video for face localization and save extraction  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yolo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yolo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yolo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yolo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +129,29 @@
       <name val="ti"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ti"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,8 +181,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -313,14 +385,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,15 +469,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,9 +481,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -385,8 +493,58 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
@@ -407,8 +565,9 @@
         <name val="ti"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="176" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -419,8 +578,39 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="ti"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="176" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -440,7 +630,7 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -453,42 +643,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="ti"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -678,10 +832,50 @@
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -698,284 +892,247 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
+            <a:sp3d/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$2:$C$24</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="23"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>opencv_haar</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>mobilenet_ssd</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>mtcnn</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>dlib_hog</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>dlib_cnn</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>yolo</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>opencv_haar</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>mobilenet_ssd</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>mtcnn</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>dlib_hog</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>dlib_cnn</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>yolo</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>opencv_haar</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>mobilenet_ssd</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>mtcnn</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>dlib_hog</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>dlib_cnn</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>yolo</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>opencv_haar</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>mobilenet_ssd</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>mtcnn</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>dlib_hog</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>dlib_cnn</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.5</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.75</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.75</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.75</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.75</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.75</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.75</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>0.95</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>opencv_haar</c:v>
+                  <c:v>0.38120370370370299</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>mobilenet_ssd</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mtcnn</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dlib_hog</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>dlib_cnn</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>opencv_haar</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>mobilenet_ssd</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mtcnn</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>dlib_hog</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>dlib_cnn</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>opencv_haar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>mobilenet_ssd</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>mtcnn</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>dlib_hog</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>dlib_cnn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.37564814814814801</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.67203703703703699</c:v>
+                  <c:v>0.68314814814814795</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.54398148148148096</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.53351851851851795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39842257037036999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.700277777777777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37564814814814801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.67203703703703699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54398148148148096</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.52055555555555499</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="10">
                   <c:v>0.64453703703703602</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
+                  <c:v>0.68453703703703594</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5.9259259259259199E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>0.50490740740740703</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>0.47638888888888797</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>3.79629629629629E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>6.4814814814814797E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
+                  <c:v>0.107592592592592</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="19">
                   <c:v>5.5555555555555497E-3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
                   <c:v>5.5555555555555497E-3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Avg. frame processing time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
-              <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>opencv_haar</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mobilenet_ssd</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>mtcnn</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dlib_hog</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>dlib_cnn</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>opencv_haar</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>mobilenet_ssd</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mtcnn</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>dlib_hog</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>dlib_cnn</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>opencv_haar</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>mobilenet_ssd</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>mtcnn</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>dlib_hog</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>dlib_cnn</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>3.8628988795810199E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1955841912163602E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.20773561398188</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.4961268372005803E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13.6313166750801</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6961416403452498E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.1585841443803499E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.22331076198154</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.5702332920498304E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.6222740888595</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.6544668674468997E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.1201056374443899E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.21208487749099</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.6208782990773498E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13.6158024642202</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -985,16 +1142,64 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1205425440"/>
-        <c:axId val="-1205425984"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-1205425440"/>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="-955394560"/>
+        <c:axId val="-955404896"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="-955394560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-955404896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-955404896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1009,19 +1214,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1045,71 +1245,9 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1205425984"/>
+        <c:crossAx val="-955394560"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-1205425984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-1205425440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1119,38 +1257,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1229,7 +1335,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1252,17 +1358,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -1358,7 +1453,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1390,10 +1485,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1714,17 +1809,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1749,19 +1833,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1780,14 +1864,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E25"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="image sample(s)" dataDxfId="4" dataCellStyle="Note"/>
+    <tableColumn id="1" name="  " dataDxfId="4" dataCellStyle="Note"/>
     <tableColumn id="2" name="IoU threshold" dataDxfId="3"/>
     <tableColumn id="3" name="Process Name" dataDxfId="2"/>
     <tableColumn id="4" name="mAP" dataDxfId="1"/>
-    <tableColumn id="5" name="Avg. frame processing time" dataDxfId="0"/>
+    <tableColumn id="5" name="Avg. frame processing time (sec)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2080,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2092,278 +2176,444 @@
     <col min="2" max="3" width="13.3984375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="61.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.6" customHeight="1" thickBot="1">
+    <row r="1" spans="1:5" ht="27.6">
       <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8">
+      <c r="A2" s="19">
         <v>180</v>
       </c>
-      <c r="B2" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.37564814814814801</v>
-      </c>
-      <c r="E2" s="11">
-        <v>3.8628988795810199E-2</v>
+      <c r="B2" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.38120370370370299</v>
+      </c>
+      <c r="E2" s="29">
+        <v>3.7000850836435902E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="12">
+      <c r="A3" s="19">
         <v>180</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.5</v>
+      <c r="B3" s="30">
+        <v>0.3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.67203703703703699</v>
-      </c>
-      <c r="E3" s="13">
-        <v>4.1955841912163602E-2</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.68314814814814795</v>
+      </c>
+      <c r="E3" s="29">
+        <v>4.2436370584699797E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="12">
+      <c r="A4" s="19">
         <v>180</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.5</v>
+      <c r="B4" s="30">
+        <v>0.3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25">
         <v>0.54398148148148096</v>
       </c>
-      <c r="E4" s="13">
-        <v>1.20773561398188</v>
+      <c r="E4" s="29">
+        <v>1.2930430147382901</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="12">
+      <c r="A5" s="19">
         <v>180</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.5</v>
+      <c r="B5" s="30">
+        <v>0.3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.52055555555555499</v>
-      </c>
-      <c r="E5" s="13">
-        <v>9.4961268372005803E-2</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.53351851851851795</v>
+      </c>
+      <c r="E5" s="29">
+        <v>9.6187890900505904E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" thickBot="1">
-      <c r="A6" s="14">
+      <c r="A6" s="21">
         <v>180</v>
       </c>
-      <c r="B6" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0.64453703703703602</v>
-      </c>
-      <c r="E6" s="17">
-        <v>13.6313166750801</v>
+      <c r="B6" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.39842257037036999</v>
+      </c>
+      <c r="E6" s="28">
+        <v>13.6254645746422</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="8">
+    <row r="7" spans="1:5" ht="18" thickBot="1">
+      <c r="A7" s="21">
         <v>180</v>
       </c>
-      <c r="B7" s="18">
-        <v>0.75</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5.9259259259259199E-2</v>
-      </c>
-      <c r="E7" s="11">
-        <v>3.6961416403452498E-2</v>
+      <c r="B7" s="30">
+        <v>0.3</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0.700277777777777</v>
+      </c>
+      <c r="E7" s="29">
+        <v>0.35762004984749601</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="12">
+      <c r="A8" s="8">
         <v>180</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.50490740740740703</v>
-      </c>
-      <c r="E8" s="13">
-        <v>4.1585841443803499E-2</v>
+      <c r="B8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.37564814814814801</v>
+      </c>
+      <c r="E8" s="24">
+        <v>3.8628988795810199E-2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>180</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.75</v>
+      <c r="B9" s="2">
+        <v>0.5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.47638888888888797</v>
-      </c>
-      <c r="E9" s="13">
-        <v>1.22331076198154</v>
+        <v>6</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.67203703703703699</v>
+      </c>
+      <c r="E9" s="26">
+        <v>4.1955841912163602E-2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>180</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.75</v>
+      <c r="B10" s="2">
+        <v>0.5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.79629629629629E-2</v>
-      </c>
-      <c r="E10" s="13">
-        <v>9.5702332920498304E-2</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.54398148148148096</v>
+      </c>
+      <c r="E10" s="26">
+        <v>1.20773561398188</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" thickBot="1">
-      <c r="A11" s="14">
+    <row r="11" spans="1:5">
+      <c r="A11" s="11">
         <v>180</v>
       </c>
-      <c r="B11" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="16">
-        <v>6.4814814814814797E-2</v>
-      </c>
-      <c r="E11" s="17">
-        <v>13.6222740888595</v>
+      <c r="B11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.52055555555555499</v>
+      </c>
+      <c r="E11" s="26">
+        <v>9.4961268372005803E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8">
+    <row r="12" spans="1:5" ht="18" thickBot="1">
+      <c r="A12" s="12">
         <v>180</v>
       </c>
-      <c r="B12" s="20">
-        <v>0.95</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0</v>
-      </c>
-      <c r="E12" s="11">
-        <v>3.6544668674468997E-2</v>
+      <c r="B12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0.64453703703703602</v>
+      </c>
+      <c r="E12" s="28">
+        <v>13.6313166750801</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="18" thickBot="1">
       <c r="A13" s="12">
         <v>180</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5.5555555555555497E-3</v>
-      </c>
-      <c r="E13" s="13">
-        <v>4.1201056374443899E-2</v>
+      <c r="B13" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="32">
+        <v>0.68453703703703594</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0.34469720787472102</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12">
+      <c r="A14" s="8">
         <v>180</v>
       </c>
-      <c r="B14" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5.5555555555555497E-3</v>
-      </c>
-      <c r="E14" s="13">
-        <v>1.21208487749099</v>
+      <c r="B14" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="23">
+        <v>5.9259259259259199E-2</v>
+      </c>
+      <c r="E14" s="24">
+        <v>3.6961416403452498E-2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>180</v>
       </c>
-      <c r="B15" s="4">
-        <v>0.95</v>
+      <c r="B15" s="3">
+        <v>0.75</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="25">
+        <v>0.50490740740740703</v>
+      </c>
+      <c r="E15" s="26">
+        <v>4.1585841443803499E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11">
+        <v>180</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.47638888888888797</v>
+      </c>
+      <c r="E16" s="26">
+        <v>1.22331076198154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="11">
+        <v>180</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="25">
+        <v>3.79629629629629E-2</v>
+      </c>
+      <c r="E17" s="26">
+        <v>9.5702332920498304E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18" thickBot="1">
+      <c r="A18" s="12">
+        <v>180</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="27">
+        <v>6.4814814814814797E-2</v>
+      </c>
+      <c r="E18" s="28">
+        <v>13.6222740888595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" thickBot="1">
+      <c r="A19" s="12">
+        <v>180</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0.107592592592592</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0.346790405114491</v>
+      </c>
+      <c r="G19" s="31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8">
+        <v>180</v>
+      </c>
+      <c r="B20" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="23">
         <v>0</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E20" s="24">
+        <v>3.6544668674468997E-2</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="11">
+        <v>180</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="25">
+        <v>5.5555555555555497E-3</v>
+      </c>
+      <c r="E21" s="26">
+        <v>4.1201056374443899E-2</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="11">
+        <v>180</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="25">
+        <v>5.5555555555555497E-3</v>
+      </c>
+      <c r="E22" s="26">
+        <v>1.21208487749099</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="11">
+        <v>180</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
         <v>9.6208782990773498E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" thickBot="1">
-      <c r="A16" s="14">
+    <row r="24" spans="1:7" ht="18" thickBot="1">
+      <c r="A24" s="12">
         <v>180</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B24" s="18">
         <v>0.95</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="C24" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="27">
         <v>0</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E24" s="28">
         <v>13.6158024642202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" thickBot="1">
+      <c r="A25" s="21">
+        <v>180</v>
+      </c>
+      <c r="B25" s="33">
+        <v>0.95</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0</v>
+      </c>
+      <c r="E25" s="29">
+        <v>0.346790405114491</v>
       </c>
     </row>
   </sheetData>
